--- a/statistics/R/roiHumanBody_Within-PLI_beta/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_beta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.011685792935792916</v>
+        <v>-0.005842896467896458</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.018959435626102333</v>
+        <v>-0.009479717813051167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.035204762908747744</v>
+        <v>0.017602381454373872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.037414965986394544</v>
+        <v>0.018707482993197272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01772959183673467</v>
+        <v>0.008864795918367335</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.008415646960538647</v>
+        <v>-0.004207823480269324</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.019823978974305823</v>
+        <v>-0.009911989487152911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.019387755102040827</v>
+        <v>0.009693877551020413</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04767907162865148</v>
+        <v>-0.02383953581432574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008948023653906012</v>
+        <v>0.004474011826953006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03376906318082795</v>
+        <v>0.016884531590413976</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0438258344273382</v>
+        <v>0.0219129172136691</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001411074940486673</v>
+        <v>-7.055374702433365E-4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006432748538011679</v>
+        <v>-0.0032163742690058394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007852608729801674</v>
+        <v>0.003926304364900837</v>
       </c>
       <c r="F4" t="n">
-        <v>0.039094650205761305</v>
+        <v>0.019547325102880653</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.013579473374795037</v>
+        <v>-0.0067897366873975185</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03931403931403929</v>
+        <v>-0.019657019657019645</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001640415926130151</v>
+        <v>8.202079630650755E-4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006399978622200847</v>
+        <v>0.0031999893111004235</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.018993562337215608</v>
+        <v>-0.009496781168607804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.022566939233605893</v>
+        <v>0.011283469616802946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0065699891067537985</v>
+        <v>0.0032849945533768993</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0038220675475577337</v>
+        <v>0.0019110337737788669</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01295434628767958</v>
+        <v>-0.00647717314383979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006412262236634991</v>
+        <v>0.0032061311183174956</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.019171304885590573</v>
+        <v>-0.009585652442795287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00427948957360727</v>
+        <v>0.002139744786803635</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.004185818471532793</v>
+        <v>-0.0020929092357663964</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.008929564485120084</v>
+        <v>-0.004464782242560042</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01830170664757136</v>
+        <v>-0.00915085332378568</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.032130360561733046</v>
+        <v>-0.016065180280866523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01872218538885201</v>
+        <v>0.009361092694426004</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.024187452758881317</v>
+        <v>-0.012093726379440659</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01830120937263796</v>
+        <v>-0.00915060468631898</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0011379860586210044</v>
+        <v>-5.689930293105022E-4</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.028267763561881154</v>
+        <v>-0.014133881780940577</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.7483380816709664E-4</v>
+        <v>-2.3741690408354832E-4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03531116150163768</v>
+        <v>0.01765558075081884</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001441459774793069</v>
+        <v>7.207298873965345E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.010042695756981468</v>
+        <v>0.005021347878490734</v>
       </c>
       <c r="H8" t="n">
-        <v>0.020465902410346903</v>
+        <v>0.010232951205173452</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0024526014109347294</v>
+        <v>0.0012263007054673647</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005717699266086368</v>
+        <v>-0.002858849633043184</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05004055494251575</v>
+        <v>-0.025020277471257873</v>
       </c>
       <c r="F9" t="n">
-        <v>0.031002771478961993</v>
+        <v>0.015501385739480997</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.006535947712418305</v>
+        <v>-0.0032679738562091526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03730390791794297</v>
+        <v>0.018651953958971484</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01493041661108882</v>
+        <v>-0.00746520830554441</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0018100807574492617</v>
+        <v>-9.050403787246308E-4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.010459439030867573</v>
+        <v>0.005229719515433787</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.014252367613712097</v>
+        <v>-0.0071261838068560485</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.026047873270095556</v>
+        <v>-0.013023936635047778</v>
       </c>
       <c r="H10" t="n">
-        <v>0.013034102529900893</v>
+        <v>0.006517051264950446</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.015016619183285868</v>
+        <v>-0.007508309591642934</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.873294346978141E-4</v>
+        <v>-2.4366471734890705E-4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02423852423852424</v>
+        <v>0.01211926211926212</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03866008866008863</v>
+        <v>-0.019330044330044316</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.038161375661375674</v>
+        <v>-0.019080687830687837</v>
       </c>
       <c r="H11" t="n">
-        <v>6.670284448061781E-4</v>
+        <v>3.3351422240308903E-4</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.023770251840427248</v>
+        <v>0.011885125920213624</v>
       </c>
       <c r="D12" t="n">
-        <v>0.042060116621520066</v>
+        <v>0.021030058310760033</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.8824334538616343E-4</v>
+        <v>-2.4412167269308171E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05127103472968131</v>
+        <v>0.025635517364840654</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03497801743415774</v>
+        <v>-0.01748900871707887</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.024080857414190804</v>
+        <v>-0.012040428707095402</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02740826425036952</v>
+        <v>0.01370413212518476</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00900007150007151</v>
+        <v>0.004500035750035755</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04307644110275688</v>
+        <v>-0.02153822055137844</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.018386243386243395</v>
+        <v>-0.009193121693121697</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.001181431736987315</v>
+        <v>-5.907158684936575E-4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008807631614649175</v>
+        <v>0.0044038158073245876</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.018512219702695898</v>
+        <v>-0.009256109851347949</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02219282774838327</v>
+        <v>0.011096413874191635</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.022301893730465122</v>
+        <v>-0.011150946865232561</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02367283249636193</v>
+        <v>-0.011836416248180964</v>
       </c>
       <c r="G14" t="n">
-        <v>0.027742027742027803</v>
+        <v>0.013871013871013901</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006613756613756683</v>
+        <v>0.0033068783068783414</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02514852514852517</v>
+        <v>-0.012574262574262585</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.028294167183056107</v>
+        <v>-0.014147083591528054</v>
       </c>
       <c r="E15" t="n">
-        <v>0.028094044635397997</v>
+        <v>0.014047022317698998</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07033913612860984</v>
+        <v>-0.03516956806430492</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0078115421252676065</v>
+        <v>0.0039057710626338032</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.002482702482702548</v>
+        <v>-0.001241351241351274</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03511845178511849</v>
+        <v>0.017559225892559246</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005378028404344176</v>
+        <v>0.002689014202172088</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003734503734503708</v>
+        <v>-0.001867251867251854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.013575605680868796</v>
+        <v>0.006787802840434398</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.018425351758685066</v>
+        <v>-0.009212675879342533</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.01426064252861639</v>
+        <v>-0.007130321264308195</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.020061728395061706</v>
+        <v>-0.010030864197530853</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0393085889326491</v>
+        <v>-0.01965429446632455</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02659802659802657</v>
+        <v>-0.013299013299013285</v>
       </c>
       <c r="F17" t="n">
-        <v>0.019059352392685747</v>
+        <v>0.009529676196342873</v>
       </c>
       <c r="G17" t="n">
-        <v>0.030459030459030423</v>
+        <v>0.015229515229515211</v>
       </c>
       <c r="H17" t="n">
-        <v>0.014540333984778442</v>
+        <v>0.007270166992389221</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.05347086852934807</v>
+        <v>-0.026735434264674035</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.016913315033615817</v>
+        <v>-0.008456657516807908</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.020857108275408903</v>
+        <v>-0.010428554137704452</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03328748916984209</v>
+        <v>0.016643744584921044</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03200428319475934</v>
+        <v>-0.01600214159737967</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03756613756613758</v>
+        <v>-0.01878306878306879</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.028481145544637626</v>
+        <v>-0.014240572772318813</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0493556421918995</v>
+        <v>-0.02467782109594975</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04476103087214192</v>
+        <v>-0.02238051543607096</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.022802103297459297</v>
+        <v>-0.011401051648729649</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009070294784580518</v>
+        <v>0.004535147392290259</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002474825055470309</v>
+        <v>0.0012374125277351544</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.028030699459270836</v>
+        <v>0.014015349729635418</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05777393935288666</v>
+        <v>0.02888696967644333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009835843169176517</v>
+        <v>0.0049179215845882585</v>
       </c>
       <c r="F20" t="n">
-        <v>0.010759574485064732</v>
+        <v>0.005379787242532366</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0065798399131732355</v>
+        <v>-0.0032899199565866177</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01628429149437549</v>
+        <v>-0.008142145747187746</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.020509520509520512</v>
+        <v>0.010254760254760256</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07338145934637161</v>
+        <v>0.036690729673185804</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.022495022495022526</v>
+        <v>-0.011247511247511263</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.03347221329677469</v>
+        <v>-0.016736106648387344</v>
       </c>
       <c r="G21" t="n">
-        <v>0.012360763018657739</v>
+        <v>0.006180381509328869</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.010910177576844204</v>
+        <v>-0.005455088788422102</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.011883732471967723</v>
+        <v>0.005941866235983861</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03420781893004113</v>
+        <v>-0.017103909465020564</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.023666726791726822</v>
+        <v>-0.011833363395863411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0018387471947843292</v>
+        <v>9.193735973921646E-4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.013756613756613745</v>
+        <v>0.006878306878306872</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02088199310421532</v>
+        <v>-0.01044099655210766</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.006963312518868142</v>
+        <v>-0.003481656259434071</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.003039774468345857</v>
+        <v>-0.0015198872341729286</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.017383925278662143</v>
+        <v>-0.008691962639331072</v>
       </c>
       <c r="F23" t="n">
-        <v>0.027091193757860454</v>
+        <v>0.013545596878930227</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0244022217706428</v>
+        <v>0.0122011108853214</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.026211873638344207</v>
+        <v>-0.013105936819172104</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.015944515944515958</v>
+        <v>0.007972257972257979</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06040177604505084</v>
+        <v>-0.03020088802252542</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.783340116672809E-5</v>
+        <v>-3.3916700583364046E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05813143971038712</v>
+        <v>-0.02906571985519356</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006968989425129801</v>
+        <v>0.0034844947125649006</v>
       </c>
       <c r="H24" t="n">
-        <v>0.013941549029268335</v>
+        <v>0.006970774514634168</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.005051849879436077</v>
+        <v>-0.0025259249397180383</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.016874016874016906</v>
+        <v>-0.008437008437008453</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.017543517543517573</v>
+        <v>-0.008771758771758786</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.039611039611039595</v>
+        <v>-0.019805519805519797</v>
       </c>
       <c r="G25" t="n">
-        <v>0.014434595386976334</v>
+        <v>0.007217297693488167</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0010255791505791867</v>
+        <v>-5.127895752895933E-4</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.016928896314861275</v>
+        <v>0.008464448157430637</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.027018855590284163</v>
+        <v>-0.013509427795142082</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0018862763960803275</v>
+        <v>-9.431381980401637E-4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001419595616024144</v>
+        <v>7.09797808012072E-4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.448197892643168E-4</v>
+        <v>1.724098946321584E-4</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.03793183940242764</v>
+        <v>-0.01896591970121382</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0040824996965347915</v>
+        <v>-0.0020412498482673958</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03068628361026024</v>
+        <v>-0.01534314180513012</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04608281751138896</v>
+        <v>0.02304140875569448</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.010510510510510496</v>
+        <v>-0.005255255255255248</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01119251119251119</v>
+        <v>0.005596255596255595</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0022165022165021864</v>
+        <v>-0.0011082511082510932</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.015293524817334397</v>
+        <v>0.007646762408667199</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06099878680523835</v>
+        <v>0.030499393402619174</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06947820836709726</v>
+        <v>0.03473910418354863</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.013822751322751348</v>
+        <v>-0.006911375661375674</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.05064491746519395</v>
+        <v>-0.025322458732596975</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.014005602240896337</v>
+        <v>-0.007002801120448168</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01754385964912278</v>
+        <v>-0.00877192982456139</v>
       </c>
       <c r="D29" t="n">
-        <v>0.014543847877181243</v>
+        <v>0.0072719239385906215</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0025819470263914457</v>
+        <v>-0.0012909735131957228</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.00352187658689207</v>
+        <v>-0.001760938293446035</v>
       </c>
       <c r="G29" t="n">
-        <v>0.045549631263917034</v>
+        <v>0.022774815631958517</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0384670384670385</v>
+        <v>-0.01923351923351925</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0249517374517374</v>
+        <v>0.0124758687258687</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.008753396253396217</v>
+        <v>-0.004376698126698109</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.023189856523189833</v>
+        <v>-0.011594928261594917</v>
       </c>
       <c r="F30" t="n">
-        <v>0.024406549406549377</v>
+        <v>0.012203274703274689</v>
       </c>
       <c r="G30" t="n">
-        <v>0.026719576719576643</v>
+        <v>0.013359788359788322</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.012757118020275848</v>
+        <v>-0.006378559010137924</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.032</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.029</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.021</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07338145934637161</v>
+        <v>0.036690729673185804</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>27.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06947820836709726</v>
+        <v>0.03473910418354863</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0438258344273382</v>
+        <v>0.0219129172136691</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>

--- a/statistics/R/roiHumanBody_Within-PLI_beta/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_beta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.005842896467896458</v>
+        <v>-0.011685792935792916</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.009479717813051167</v>
+        <v>-0.018959435626102333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.017602381454373872</v>
+        <v>0.035204762908747744</v>
       </c>
       <c r="F2" t="n">
-        <v>0.018707482993197272</v>
+        <v>0.037414965986394544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008864795918367335</v>
+        <v>0.01772959183673467</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.004207823480269324</v>
+        <v>-0.008415646960538647</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.009911989487152911</v>
+        <v>-0.019823978974305823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009693877551020413</v>
+        <v>0.019387755102040827</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02383953581432574</v>
+        <v>-0.04767907162865148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004474011826953006</v>
+        <v>0.008948023653906012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.016884531590413976</v>
+        <v>0.03376906318082795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0219129172136691</v>
+        <v>0.0438258344273382</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.055374702433365E-4</v>
+        <v>-0.001411074940486673</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0032163742690058394</v>
+        <v>-0.006432748538011679</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003926304364900837</v>
+        <v>0.007852608729801674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.019547325102880653</v>
+        <v>0.039094650205761305</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0067897366873975185</v>
+        <v>-0.013579473374795037</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.019657019657019645</v>
+        <v>-0.03931403931403929</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>8.202079630650755E-4</v>
+        <v>0.001640415926130151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0031999893111004235</v>
+        <v>0.006399978622200847</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.009496781168607804</v>
+        <v>-0.018993562337215608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.011283469616802946</v>
+        <v>0.022566939233605893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0032849945533768993</v>
+        <v>0.0065699891067537985</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0019110337737788669</v>
+        <v>0.0038220675475577337</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00647717314383979</v>
+        <v>-0.01295434628767958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0032061311183174956</v>
+        <v>0.006412262236634991</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.009585652442795287</v>
+        <v>-0.019171304885590573</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002139744786803635</v>
+        <v>0.00427948957360727</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0020929092357663964</v>
+        <v>-0.004185818471532793</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.004464782242560042</v>
+        <v>-0.008929564485120084</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00915085332378568</v>
+        <v>-0.01830170664757136</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.016065180280866523</v>
+        <v>-0.032130360561733046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009361092694426004</v>
+        <v>0.01872218538885201</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.012093726379440659</v>
+        <v>-0.024187452758881317</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00915060468631898</v>
+        <v>-0.01830120937263796</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.689930293105022E-4</v>
+        <v>-0.0011379860586210044</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.014133881780940577</v>
+        <v>-0.028267763561881154</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.3741690408354832E-4</v>
+        <v>-4.7483380816709664E-4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01765558075081884</v>
+        <v>0.03531116150163768</v>
       </c>
       <c r="F8" t="n">
-        <v>7.207298873965345E-4</v>
+        <v>0.001441459774793069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005021347878490734</v>
+        <v>0.010042695756981468</v>
       </c>
       <c r="H8" t="n">
-        <v>0.010232951205173452</v>
+        <v>0.020465902410346903</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0012263007054673647</v>
+        <v>0.0024526014109347294</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002858849633043184</v>
+        <v>-0.005717699266086368</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.025020277471257873</v>
+        <v>-0.05004055494251575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.015501385739480997</v>
+        <v>0.031002771478961993</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0032679738562091526</v>
+        <v>-0.006535947712418305</v>
       </c>
       <c r="H9" t="n">
-        <v>0.018651953958971484</v>
+        <v>0.03730390791794297</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00746520830554441</v>
+        <v>-0.01493041661108882</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.050403787246308E-4</v>
+        <v>-0.0018100807574492617</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005229719515433787</v>
+        <v>0.010459439030867573</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0071261838068560485</v>
+        <v>-0.014252367613712097</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.013023936635047778</v>
+        <v>-0.026047873270095556</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006517051264950446</v>
+        <v>0.013034102529900893</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.007508309591642934</v>
+        <v>-0.015016619183285868</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.4366471734890705E-4</v>
+        <v>-4.873294346978141E-4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01211926211926212</v>
+        <v>0.02423852423852424</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.019330044330044316</v>
+        <v>-0.03866008866008863</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.019080687830687837</v>
+        <v>-0.038161375661375674</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3351422240308903E-4</v>
+        <v>6.670284448061781E-4</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.011885125920213624</v>
+        <v>0.023770251840427248</v>
       </c>
       <c r="D12" t="n">
-        <v>0.021030058310760033</v>
+        <v>0.042060116621520066</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.4412167269308171E-4</v>
+        <v>-4.8824334538616343E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.025635517364840654</v>
+        <v>0.05127103472968131</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01748900871707887</v>
+        <v>-0.03497801743415774</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.012040428707095402</v>
+        <v>-0.024080857414190804</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01370413212518476</v>
+        <v>0.02740826425036952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004500035750035755</v>
+        <v>0.00900007150007151</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02153822055137844</v>
+        <v>-0.04307644110275688</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.009193121693121697</v>
+        <v>-0.018386243386243395</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.907158684936575E-4</v>
+        <v>-0.001181431736987315</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0044038158073245876</v>
+        <v>0.008807631614649175</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.009256109851347949</v>
+        <v>-0.018512219702695898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.011096413874191635</v>
+        <v>0.02219282774838327</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.011150946865232561</v>
+        <v>-0.022301893730465122</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.011836416248180964</v>
+        <v>-0.02367283249636193</v>
       </c>
       <c r="G14" t="n">
-        <v>0.013871013871013901</v>
+        <v>0.027742027742027803</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0033068783068783414</v>
+        <v>0.006613756613756683</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.012574262574262585</v>
+        <v>-0.02514852514852517</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.014147083591528054</v>
+        <v>-0.028294167183056107</v>
       </c>
       <c r="E15" t="n">
-        <v>0.014047022317698998</v>
+        <v>0.028094044635397997</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03516956806430492</v>
+        <v>-0.07033913612860984</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0039057710626338032</v>
+        <v>0.0078115421252676065</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.001241351241351274</v>
+        <v>-0.002482702482702548</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.017559225892559246</v>
+        <v>0.03511845178511849</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002689014202172088</v>
+        <v>0.005378028404344176</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.001867251867251854</v>
+        <v>-0.003734503734503708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006787802840434398</v>
+        <v>0.013575605680868796</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.009212675879342533</v>
+        <v>-0.018425351758685066</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.007130321264308195</v>
+        <v>-0.01426064252861639</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.010030864197530853</v>
+        <v>-0.020061728395061706</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01965429446632455</v>
+        <v>-0.0393085889326491</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.013299013299013285</v>
+        <v>-0.02659802659802657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009529676196342873</v>
+        <v>0.019059352392685747</v>
       </c>
       <c r="G17" t="n">
-        <v>0.015229515229515211</v>
+        <v>0.030459030459030423</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007270166992389221</v>
+        <v>0.014540333984778442</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.026735434264674035</v>
+        <v>-0.05347086852934807</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.008456657516807908</v>
+        <v>-0.016913315033615817</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.010428554137704452</v>
+        <v>-0.020857108275408903</v>
       </c>
       <c r="F18" t="n">
-        <v>0.016643744584921044</v>
+        <v>0.03328748916984209</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01600214159737967</v>
+        <v>-0.03200428319475934</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01878306878306879</v>
+        <v>-0.03756613756613758</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.014240572772318813</v>
+        <v>-0.028481145544637626</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02467782109594975</v>
+        <v>-0.0493556421918995</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02238051543607096</v>
+        <v>-0.04476103087214192</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.011401051648729649</v>
+        <v>-0.022802103297459297</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004535147392290259</v>
+        <v>0.009070294784580518</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0012374125277351544</v>
+        <v>0.002474825055470309</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.014015349729635418</v>
+        <v>0.028030699459270836</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02888696967644333</v>
+        <v>0.05777393935288666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0049179215845882585</v>
+        <v>0.009835843169176517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005379787242532366</v>
+        <v>0.010759574485064732</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0032899199565866177</v>
+        <v>-0.0065798399131732355</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.008142145747187746</v>
+        <v>-0.01628429149437549</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.010254760254760256</v>
+        <v>0.020509520509520512</v>
       </c>
       <c r="D21" t="n">
-        <v>0.036690729673185804</v>
+        <v>0.07338145934637161</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.011247511247511263</v>
+        <v>-0.022495022495022526</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.016736106648387344</v>
+        <v>-0.03347221329677469</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006180381509328869</v>
+        <v>0.012360763018657739</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.005455088788422102</v>
+        <v>-0.010910177576844204</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005941866235983861</v>
+        <v>0.011883732471967723</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.017103909465020564</v>
+        <v>-0.03420781893004113</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.011833363395863411</v>
+        <v>-0.023666726791726822</v>
       </c>
       <c r="F22" t="n">
-        <v>9.193735973921646E-4</v>
+        <v>0.0018387471947843292</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006878306878306872</v>
+        <v>0.013756613756613745</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01044099655210766</v>
+        <v>-0.02088199310421532</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.003481656259434071</v>
+        <v>-0.006963312518868142</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0015198872341729286</v>
+        <v>-0.003039774468345857</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.008691962639331072</v>
+        <v>-0.017383925278662143</v>
       </c>
       <c r="F23" t="n">
-        <v>0.013545596878930227</v>
+        <v>0.027091193757860454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0122011108853214</v>
+        <v>0.0244022217706428</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.013105936819172104</v>
+        <v>-0.026211873638344207</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007972257972257979</v>
+        <v>0.015944515944515958</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.03020088802252542</v>
+        <v>-0.06040177604505084</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.3916700583364046E-5</v>
+        <v>-6.783340116672809E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.02906571985519356</v>
+        <v>-0.05813143971038712</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0034844947125649006</v>
+        <v>0.006968989425129801</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006970774514634168</v>
+        <v>0.013941549029268335</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0025259249397180383</v>
+        <v>-0.005051849879436077</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.008437008437008453</v>
+        <v>-0.016874016874016906</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.008771758771758786</v>
+        <v>-0.017543517543517573</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.019805519805519797</v>
+        <v>-0.039611039611039595</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007217297693488167</v>
+        <v>0.014434595386976334</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.127895752895933E-4</v>
+        <v>-0.0010255791505791867</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008464448157430637</v>
+        <v>0.016928896314861275</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.013509427795142082</v>
+        <v>-0.027018855590284163</v>
       </c>
       <c r="E26" t="n">
-        <v>-9.431381980401637E-4</v>
+        <v>-0.0018862763960803275</v>
       </c>
       <c r="F26" t="n">
-        <v>7.09797808012072E-4</v>
+        <v>0.001419595616024144</v>
       </c>
       <c r="G26" t="n">
-        <v>1.724098946321584E-4</v>
+        <v>3.448197892643168E-4</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.01896591970121382</v>
+        <v>-0.03793183940242764</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0020412498482673958</v>
+        <v>-0.0040824996965347915</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01534314180513012</v>
+        <v>-0.03068628361026024</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02304140875569448</v>
+        <v>0.04608281751138896</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.005255255255255248</v>
+        <v>-0.010510510510510496</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005596255596255595</v>
+        <v>0.01119251119251119</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0011082511082510932</v>
+        <v>-0.0022165022165021864</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007646762408667199</v>
+        <v>0.015293524817334397</v>
       </c>
       <c r="D28" t="n">
-        <v>0.030499393402619174</v>
+        <v>0.06099878680523835</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03473910418354863</v>
+        <v>0.06947820836709726</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.006911375661375674</v>
+        <v>-0.013822751322751348</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.025322458732596975</v>
+        <v>-0.05064491746519395</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.007002801120448168</v>
+        <v>-0.014005602240896337</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00877192982456139</v>
+        <v>-0.01754385964912278</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0072719239385906215</v>
+        <v>0.014543847877181243</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0012909735131957228</v>
+        <v>-0.0025819470263914457</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.001760938293446035</v>
+        <v>-0.00352187658689207</v>
       </c>
       <c r="G29" t="n">
-        <v>0.022774815631958517</v>
+        <v>0.045549631263917034</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01923351923351925</v>
+        <v>-0.0384670384670385</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0124758687258687</v>
+        <v>0.0249517374517374</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.004376698126698109</v>
+        <v>-0.008753396253396217</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.011594928261594917</v>
+        <v>-0.023189856523189833</v>
       </c>
       <c r="F30" t="n">
-        <v>0.012203274703274689</v>
+        <v>0.024406549406549377</v>
       </c>
       <c r="G30" t="n">
-        <v>0.013359788359788322</v>
+        <v>0.026719576719576643</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.006378559010137924</v>
+        <v>-0.012757118020275848</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.011</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.016</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.015</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01</v>
+        <v>0.021</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.036690729673185804</v>
+        <v>0.07338145934637161</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>27.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03473910418354863</v>
+        <v>0.06947820836709726</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0219129172136691</v>
+        <v>0.0438258344273382</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
